--- a/data/GTR_data.xlsx
+++ b/data/GTR_data.xlsx
@@ -15844,6 +15844,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" enabled="0" method="" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="1"/>
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/data/GTR_data.xlsx
+++ b/data/GTR_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/PapayaFlavour9/Shared Documents/Research Projects/Josh_PhD_Flavour_Genomics/Project_Information/Experiments/DATA_ANALYSIS/new_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau.sharepoint.com/sites/PapayaFlavour9/Shared Documents/Research Projects/Josh_PhD_Flavour_Genomics/Project_Information/Experiments/Papaya_sensory_metabolomics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D94CADD-ED6B-4730-925C-678F229FA807}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D01C9FB-BF74-450B-ADDC-7528BE1A48FD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2nd_batch" sheetId="1" r:id="rId1"/>
@@ -1090,10 +1090,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1419,9 +1415,9 @@
       <selection activeCell="M5" sqref="M5:M91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -1547,7 +1543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>27</v>
       </c>
@@ -1579,7 +1575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1629,7 +1625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1729,7 +1725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1779,7 +1775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1829,7 +1825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1929,7 +1925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1979,7 +1975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2029,7 +2025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2076,7 +2072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2123,7 +2119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -2170,7 +2166,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -2217,7 +2213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -2311,7 +2307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -2358,7 +2354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -2405,7 +2401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -2452,7 +2448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2499,7 +2495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -2546,7 +2542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -2687,7 +2683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2734,7 +2730,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -2781,7 +2777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -2828,7 +2824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2875,7 +2871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2922,7 +2918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -2969,7 +2965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -3016,7 +3012,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -3063,7 +3059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -3157,7 +3153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -3204,7 +3200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -3251,7 +3247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -3298,7 +3294,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -3345,7 +3341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -3392,7 +3388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -3439,7 +3435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -3486,7 +3482,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -3533,7 +3529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -3580,7 +3576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -3627,7 +3623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -3674,7 +3670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -3721,7 +3717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -3768,7 +3764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -3815,7 +3811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -3862,7 +3858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -3909,7 +3905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -3956,7 +3952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -4003,7 +3999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -4050,7 +4046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -4097,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -4144,7 +4140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -4191,7 +4187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -4238,7 +4234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -4285,7 +4281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -4332,7 +4328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -4379,7 +4375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -4426,7 +4422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -4520,7 +4516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -4567,7 +4563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -4614,7 +4610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -4661,7 +4657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -4708,7 +4704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -4802,7 +4798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -4849,7 +4845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -4896,7 +4892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -4943,7 +4939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -4990,7 +4986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -5037,7 +5033,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -5131,7 +5127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -5178,7 +5174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -5225,7 +5221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
@@ -5272,7 +5268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -5319,7 +5315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -5366,7 +5362,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -5413,7 +5409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -5460,7 +5456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -5554,7 +5550,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -5601,7 +5597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -5648,7 +5644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>87</v>
       </c>
@@ -5695,7 +5691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -5703,7 +5699,7 @@
         <v>49.04</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -5711,7 +5707,7 @@
         <v>43.66</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -5719,7 +5715,7 @@
         <v>38.03</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>194</v>
       </c>
@@ -5744,13 +5740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690C8EB8-1165-4F42-8A59-6BF6A3546C05}">
   <dimension ref="A1:Q181"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" activeCellId="1" sqref="M1:M1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5803,7 +5799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5844,7 +5840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
         <v>27</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>27</v>
       </c>
@@ -5908,7 +5904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5952,7 +5948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5996,7 +5992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6040,7 +6036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6084,7 +6080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6128,7 +6124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6172,7 +6168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6216,7 +6212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6260,7 +6256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6304,7 +6300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6348,7 +6344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -6392,7 +6388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -6436,7 +6432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -6480,7 +6476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14</v>
       </c>
@@ -6524,7 +6520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -6568,7 +6564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -6612,7 +6608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -6656,7 +6652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -6750,7 +6746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -6797,7 +6793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -6844,7 +6840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -6891,7 +6887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -6941,7 +6937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -6991,7 +6987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>25</v>
       </c>
@@ -7041,7 +7037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>26</v>
       </c>
@@ -7091,7 +7087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -7141,7 +7137,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>28</v>
       </c>
@@ -7191,7 +7187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -7241,7 +7237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -7291,7 +7287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -7341,7 +7337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>32</v>
       </c>
@@ -7388,7 +7384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>33</v>
       </c>
@@ -7435,7 +7431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>34</v>
       </c>
@@ -7482,7 +7478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35</v>
       </c>
@@ -7529,7 +7525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>36</v>
       </c>
@@ -7576,7 +7572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>37</v>
       </c>
@@ -7623,7 +7619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>38</v>
       </c>
@@ -7670,7 +7666,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>39</v>
       </c>
@@ -7717,7 +7713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>40</v>
       </c>
@@ -7764,7 +7760,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>41</v>
       </c>
@@ -7811,7 +7807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>42</v>
       </c>
@@ -7858,7 +7854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>43</v>
       </c>
@@ -7905,7 +7901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
@@ -7952,7 +7948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
@@ -7999,7 +7995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
@@ -8046,7 +8042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -8093,7 +8089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
@@ -8140,7 +8136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
@@ -8187,7 +8183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
@@ -8234,7 +8230,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
@@ -8281,7 +8277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
@@ -8328,7 +8324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
@@ -8375,7 +8371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -8469,7 +8465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
@@ -8516,7 +8512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
@@ -8563,7 +8559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
@@ -8610,7 +8606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
@@ -8657,7 +8653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
@@ -8704,7 +8700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -8751,7 +8747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
@@ -8798,7 +8794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
@@ -8845,7 +8841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>64</v>
       </c>
@@ -8892,7 +8888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>65</v>
       </c>
@@ -8939,7 +8935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>66</v>
       </c>
@@ -8986,7 +8982,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>67</v>
       </c>
@@ -9033,7 +9029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>68</v>
       </c>
@@ -9080,7 +9076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>69</v>
       </c>
@@ -9127,7 +9123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>70</v>
       </c>
@@ -9174,7 +9170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>71</v>
       </c>
@@ -9221,7 +9217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -9268,7 +9264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>73</v>
       </c>
@@ -9315,7 +9311,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>74</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>75</v>
       </c>
@@ -9409,7 +9405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>76</v>
       </c>
@@ -9456,7 +9452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>77</v>
       </c>
@@ -9503,7 +9499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>78</v>
       </c>
@@ -9550,7 +9546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>79</v>
       </c>
@@ -9597,7 +9593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -9644,7 +9640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>81</v>
       </c>
@@ -9691,7 +9687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>82</v>
       </c>
@@ -9738,7 +9734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>83</v>
       </c>
@@ -9785,7 +9781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>84</v>
       </c>
@@ -9832,7 +9828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -9879,7 +9875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>86</v>
       </c>
@@ -9926,7 +9922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>87</v>
       </c>
@@ -9973,7 +9969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>88</v>
       </c>
@@ -10020,7 +10016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>89</v>
       </c>
@@ -10067,7 +10063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>90</v>
       </c>
@@ -10114,7 +10110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>91</v>
       </c>
@@ -10161,7 +10157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -10208,7 +10204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93</v>
       </c>
@@ -10255,7 +10251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>94</v>
       </c>
@@ -10302,7 +10298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -10349,7 +10345,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -10396,7 +10392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>97</v>
       </c>
@@ -10443,7 +10439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>98</v>
       </c>
@@ -10490,7 +10486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>99</v>
       </c>
@@ -10537,7 +10533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100</v>
       </c>
@@ -10584,7 +10580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>101</v>
       </c>
@@ -10631,7 +10627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>102</v>
       </c>
@@ -10678,7 +10674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>103</v>
       </c>
@@ -10725,7 +10721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>104</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>105</v>
       </c>
@@ -10819,7 +10815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>106</v>
       </c>
@@ -10866,7 +10862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>107</v>
       </c>
@@ -10913,7 +10909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>108</v>
       </c>
@@ -10960,7 +10956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -11007,7 +11003,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>110</v>
       </c>
@@ -11054,7 +11050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>111</v>
       </c>
@@ -11101,7 +11097,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>112</v>
       </c>
@@ -11148,7 +11144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>113</v>
       </c>
@@ -11195,7 +11191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>114</v>
       </c>
@@ -11242,7 +11238,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>115</v>
       </c>
@@ -11289,7 +11285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>116</v>
       </c>
@@ -11336,7 +11332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>117</v>
       </c>
@@ -11383,7 +11379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>118</v>
       </c>
@@ -11430,7 +11426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>119</v>
       </c>
@@ -11477,7 +11473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>120</v>
       </c>
@@ -11524,7 +11520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>121</v>
       </c>
@@ -11571,7 +11567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>122</v>
       </c>
@@ -11618,7 +11614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>123</v>
       </c>
@@ -11665,7 +11661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>124</v>
       </c>
@@ -11712,7 +11708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>125</v>
       </c>
@@ -11759,7 +11755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>126</v>
       </c>
@@ -11806,7 +11802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>127</v>
       </c>
@@ -11853,7 +11849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>128</v>
       </c>
@@ -11900,7 +11896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>129</v>
       </c>
@@ -11947,7 +11943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>130</v>
       </c>
@@ -11994,7 +11990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>131</v>
       </c>
@@ -12041,7 +12037,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>132</v>
       </c>
@@ -12088,7 +12084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>133</v>
       </c>
@@ -12135,7 +12131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>134</v>
       </c>
@@ -12182,7 +12178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>135</v>
       </c>
@@ -12229,7 +12225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>136</v>
       </c>
@@ -12276,7 +12272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>137</v>
       </c>
@@ -12323,7 +12319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>138</v>
       </c>
@@ -12370,7 +12366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>139</v>
       </c>
@@ -12417,7 +12413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>140</v>
       </c>
@@ -12464,7 +12460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>141</v>
       </c>
@@ -12511,7 +12507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>142</v>
       </c>
@@ -12558,7 +12554,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>143</v>
       </c>
@@ -12605,7 +12601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>144</v>
       </c>
@@ -12652,7 +12648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>145</v>
       </c>
@@ -12699,7 +12695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>146</v>
       </c>
@@ -12746,7 +12742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>147</v>
       </c>
@@ -12793,7 +12789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>148</v>
       </c>
@@ -12840,7 +12836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>149</v>
       </c>
@@ -12887,7 +12883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>150</v>
       </c>
@@ -12934,7 +12930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>151</v>
       </c>
@@ -12981,7 +12977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>152</v>
       </c>
@@ -13028,7 +13024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>153</v>
       </c>
@@ -13075,7 +13071,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>154</v>
       </c>
@@ -13122,7 +13118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>155</v>
       </c>
@@ -13169,7 +13165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>156</v>
       </c>
@@ -13216,7 +13212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>157</v>
       </c>
@@ -13263,7 +13259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>158</v>
       </c>
@@ -13310,7 +13306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>159</v>
       </c>
@@ -13357,7 +13353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>160</v>
       </c>
@@ -13404,7 +13400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>161</v>
       </c>
@@ -13451,7 +13447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>162</v>
       </c>
@@ -13498,7 +13494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>163</v>
       </c>
@@ -13545,7 +13541,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>164</v>
       </c>
@@ -13592,7 +13588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>165</v>
       </c>
@@ -13639,7 +13635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>166</v>
       </c>
@@ -13686,7 +13682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>167</v>
       </c>
@@ -13733,7 +13729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>168</v>
       </c>
@@ -13780,7 +13776,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>169</v>
       </c>
@@ -13827,7 +13823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>170</v>
       </c>
@@ -13874,7 +13870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>171</v>
       </c>
@@ -13921,7 +13917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>172</v>
       </c>
@@ -13968,7 +13964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>190</v>
       </c>
@@ -13976,7 +13972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -13984,7 +13980,7 @@
         <v>37.24</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>192</v>
       </c>
@@ -13992,7 +13988,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -14000,7 +13996,7 @@
         <v>8.41</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>194</v>
       </c>
@@ -14021,9 +14017,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>325</v>
       </c>
@@ -14031,7 +14027,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>327</v>
       </c>
@@ -14042,7 +14038,7 @@
         <v>0.99940329149999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>328</v>
       </c>
@@ -14062,13 +14058,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD16DB7-9EF6-4A8D-B729-C801802222E7}">
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>330</v>
       </c>
@@ -14076,7 +14072,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -14084,7 +14080,7 @@
         <v>0.14849999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>195</v>
       </c>
@@ -14092,7 +14088,7 @@
         <v>0.74990000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -14100,7 +14096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -14108,7 +14104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>195</v>
       </c>
@@ -14116,7 +14112,7 @@
         <v>0.64739999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -14124,7 +14120,7 @@
         <v>0.83030000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>195</v>
       </c>
@@ -14132,7 +14128,7 @@
         <v>0.55910000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>197</v>
       </c>
@@ -14140,7 +14136,7 @@
         <v>0.97989999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>198</v>
       </c>
@@ -14148,7 +14144,7 @@
         <v>0.31709999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>199</v>
       </c>
@@ -14156,7 +14152,7 @@
         <v>0.30380000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -14164,7 +14160,7 @@
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>201</v>
       </c>
@@ -14172,7 +14168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>201</v>
       </c>
@@ -14180,7 +14176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>202</v>
       </c>
@@ -14188,7 +14184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -14196,7 +14192,7 @@
         <v>0.32750000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -14204,7 +14200,7 @@
         <v>0.33239999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -14212,7 +14208,7 @@
         <v>0.32750000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -14220,7 +14216,7 @@
         <v>0.4466</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -14228,7 +14224,7 @@
         <v>0.63070000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -14236,7 +14232,7 @@
         <v>0.97209999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>209</v>
       </c>
@@ -14244,7 +14240,7 @@
         <v>1.9633</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>210</v>
       </c>
@@ -14252,7 +14248,7 @@
         <v>3.2852000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -14260,7 +14256,7 @@
         <v>0.53820000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -14268,7 +14264,7 @@
         <v>0.80169999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -14276,7 +14272,7 @@
         <v>1.4726999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -14284,7 +14280,7 @@
         <v>2.8214000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -14292,7 +14288,7 @@
         <v>5.7304000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -14300,7 +14296,7 @@
         <v>9.4809000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -14308,7 +14304,7 @@
         <v>24.165800000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -14316,7 +14312,7 @@
         <v>48.059899999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -14324,7 +14320,7 @@
         <v>101.179</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>211</v>
       </c>
@@ -14332,7 +14328,7 @@
         <v>1.4859</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -14340,7 +14336,7 @@
         <v>3.4807000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>215</v>
       </c>
@@ -14348,7 +14344,7 @@
         <v>6.7629999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>217</v>
       </c>
@@ -14356,7 +14352,7 @@
         <v>29.258600000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>219</v>
       </c>
@@ -14364,7 +14360,7 @@
         <v>6.1670999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>221</v>
       </c>
@@ -14372,7 +14368,7 @@
         <v>3.7397</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>223</v>
       </c>
@@ -14380,7 +14376,7 @@
         <v>4.6485000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>225</v>
       </c>
@@ -14388,7 +14384,7 @@
         <v>0.56659999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>227</v>
       </c>
@@ -14396,7 +14392,7 @@
         <v>7.8754999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>229</v>
       </c>
@@ -14404,7 +14400,7 @@
         <v>5.6856999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>231</v>
       </c>
@@ -14412,7 +14408,7 @@
         <v>14.418200000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>233</v>
       </c>
@@ -14420,7 +14416,7 @@
         <v>4.4664000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>235</v>
       </c>
@@ -14428,7 +14424,7 @@
         <v>4.1428000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>237</v>
       </c>
@@ -14436,7 +14432,7 @@
         <v>5.8907999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>239</v>
       </c>
@@ -14444,7 +14440,7 @@
         <v>0.61450000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>241</v>
       </c>
@@ -14452,7 +14448,7 @@
         <v>2.4830000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -14460,7 +14456,7 @@
         <v>1.2633000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>243</v>
       </c>
@@ -14468,7 +14464,7 @@
         <v>1.2528999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -14476,7 +14472,7 @@
         <v>0.58609999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>247</v>
       </c>
@@ -14484,7 +14480,7 @@
         <v>33.123399999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>249</v>
       </c>
@@ -14492,7 +14488,7 @@
         <v>1.2524999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>251</v>
       </c>
@@ -14500,7 +14496,7 @@
         <v>1.2405999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>253</v>
       </c>
@@ -14508,7 +14504,7 @@
         <v>4.891</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>255</v>
       </c>
@@ -14516,7 +14512,7 @@
         <v>5.8524000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -14524,7 +14520,7 @@
         <v>1.593</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>259</v>
       </c>
@@ -14532,7 +14528,7 @@
         <v>4.9802</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -14540,7 +14536,7 @@
         <v>1.2486999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>261</v>
       </c>
@@ -14548,7 +14544,7 @@
         <v>1.6364000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>263</v>
       </c>
@@ -14556,7 +14552,7 @@
         <v>41.667499999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>265</v>
       </c>
@@ -14564,7 +14560,7 @@
         <v>4.7382</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>267</v>
       </c>
@@ -14572,7 +14568,7 @@
         <v>0.64559999999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>269</v>
       </c>
@@ -14580,7 +14576,7 @@
         <v>2.0084</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>271</v>
       </c>
@@ -14588,7 +14584,7 @@
         <v>54.0319</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>273</v>
       </c>
@@ -14596,7 +14592,7 @@
         <v>0.56159999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>275</v>
       </c>
@@ -14604,7 +14600,7 @@
         <v>3.2702</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>277</v>
       </c>
@@ -14612,7 +14608,7 @@
         <v>9.4758999999999993</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -14620,7 +14616,7 @@
         <v>1.3535999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>279</v>
       </c>
@@ -14628,7 +14624,7 @@
         <v>1.3661000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>281</v>
       </c>
@@ -14636,7 +14632,7 @@
         <v>1.5693999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>283</v>
       </c>
@@ -14644,7 +14640,7 @@
         <v>0.38540000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>285</v>
       </c>
@@ -14652,7 +14648,7 @@
         <v>2.1724000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>287</v>
       </c>
@@ -14660,7 +14656,7 @@
         <v>32.398600000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>289</v>
       </c>
@@ -14668,7 +14664,7 @@
         <v>1.2696000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>291</v>
       </c>
@@ -14676,7 +14672,7 @@
         <v>5.6306000000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>293</v>
       </c>
@@ -14684,7 +14680,7 @@
         <v>25.100100000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>295</v>
       </c>
@@ -14692,7 +14688,7 @@
         <v>18.581900000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -14700,7 +14696,7 @@
         <v>1.2618</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>297</v>
       </c>
@@ -14708,7 +14704,7 @@
         <v>9.8656000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>299</v>
       </c>
@@ -14716,7 +14712,7 @@
         <v>2.0644</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>301</v>
       </c>
@@ -14724,7 +14720,7 @@
         <v>2.4077000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>303</v>
       </c>
@@ -14732,7 +14728,7 @@
         <v>7.8875000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>305</v>
       </c>
@@ -14740,7 +14736,7 @@
         <v>4.7670000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>307</v>
       </c>
@@ -14748,7 +14744,7 @@
         <v>1.4850000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>309</v>
       </c>
@@ -14756,7 +14752,7 @@
         <v>6.9721000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>311</v>
       </c>
@@ -14764,7 +14760,7 @@
         <v>5.5252999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>313</v>
       </c>
@@ -14772,7 +14768,7 @@
         <v>5.1928999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>57</v>
       </c>
@@ -14780,7 +14776,7 @@
         <v>1.2412000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>315</v>
       </c>
@@ -14788,7 +14784,7 @@
         <v>24.903500000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>317</v>
       </c>
@@ -14796,7 +14792,7 @@
         <v>1.3638999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>57</v>
       </c>
@@ -14804,7 +14800,7 @@
         <v>0.70940000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>319</v>
       </c>
@@ -14812,7 +14808,7 @@
         <v>85.317599999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>321</v>
       </c>
@@ -14820,7 +14816,7 @@
         <v>0.3337</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -14828,7 +14824,7 @@
         <v>0.30590000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>32</v>
       </c>
@@ -14836,7 +14832,7 @@
         <v>0.5484</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>34</v>
       </c>
@@ -14844,7 +14840,7 @@
         <v>1.0206999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>36</v>
       </c>
@@ -14852,7 +14848,7 @@
         <v>2.8231999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>38</v>
       </c>
@@ -14860,7 +14856,7 @@
         <v>5.6637000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -14868,7 +14864,7 @@
         <v>10.1387</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -14876,7 +14872,7 @@
         <v>22.924399999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>44</v>
       </c>
@@ -14884,7 +14880,7 @@
         <v>50.723700000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>46</v>
       </c>
@@ -14892,7 +14888,7 @@
         <v>100.10129999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -14900,7 +14896,7 @@
         <v>4.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -14908,7 +14904,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>53</v>
       </c>
@@ -14916,7 +14912,7 @@
         <v>4.8599999999999997E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>55</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>0.85150000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>57</v>
       </c>
@@ -14932,7 +14928,7 @@
         <v>0.99619999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>58</v>
       </c>
@@ -14940,7 +14936,7 @@
         <v>0.1431</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>60</v>
       </c>
@@ -14948,7 +14944,7 @@
         <v>2.0627</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>62</v>
       </c>
@@ -14956,7 +14952,7 @@
         <v>0.59360000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>64</v>
       </c>
@@ -14964,7 +14960,7 @@
         <v>0.4385</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>66</v>
       </c>
@@ -14972,7 +14968,7 @@
         <v>7.7401999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -14980,7 +14976,7 @@
         <v>0.34570000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>70</v>
       </c>
@@ -14988,7 +14984,7 @@
         <v>0.41349999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>72</v>
       </c>
@@ -14996,7 +14992,7 @@
         <v>6.9474999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>74</v>
       </c>
@@ -15004,7 +15000,7 @@
         <v>8.0822000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -15012,7 +15008,7 @@
         <v>1.1206</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>76</v>
       </c>
@@ -15020,7 +15016,7 @@
         <v>0.307</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>78</v>
       </c>
@@ -15028,7 +15024,7 @@
         <v>9.6579999999999995</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>80</v>
       </c>
@@ -15036,7 +15032,7 @@
         <v>0.9708</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>82</v>
       </c>
@@ -15044,7 +15040,7 @@
         <v>1.5347999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>84</v>
       </c>
@@ -15052,7 +15048,7 @@
         <v>0.84640000000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>86</v>
       </c>
@@ -15060,7 +15056,7 @@
         <v>1.6075999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>88</v>
       </c>
@@ -15068,7 +15064,7 @@
         <v>2.3222</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>90</v>
       </c>
@@ -15076,7 +15072,7 @@
         <v>0.83630000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>92</v>
       </c>
@@ -15084,7 +15080,7 @@
         <v>8.9214000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>57</v>
       </c>
@@ -15092,7 +15088,7 @@
         <v>1.1427</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>94</v>
       </c>
@@ -15100,7 +15096,7 @@
         <v>9.1207999999999991</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -15108,7 +15104,7 @@
         <v>10.625400000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>98</v>
       </c>
@@ -15116,7 +15112,7 @@
         <v>3.4203999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>100</v>
       </c>
@@ -15124,7 +15120,7 @@
         <v>7.9520999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>102</v>
       </c>
@@ -15132,7 +15128,7 @@
         <v>8.6903000000000006</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>104</v>
       </c>
@@ -15140,7 +15136,7 @@
         <v>2.2385999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>106</v>
       </c>
@@ -15148,7 +15144,7 @@
         <v>2.0634999999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>108</v>
       </c>
@@ -15156,7 +15152,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>110</v>
       </c>
@@ -15164,7 +15160,7 @@
         <v>1.0146999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>57</v>
       </c>
@@ -15172,7 +15168,7 @@
         <v>1.1435</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -15180,7 +15176,7 @@
         <v>6.9888000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>114</v>
       </c>
@@ -15188,7 +15184,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>116</v>
       </c>
@@ -15196,7 +15192,7 @@
         <v>1.0281</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>118</v>
       </c>
@@ -15204,7 +15200,7 @@
         <v>15.123699999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>120</v>
       </c>
@@ -15212,7 +15208,7 @@
         <v>8.0342000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>122</v>
       </c>
@@ -15220,7 +15216,7 @@
         <v>1.492</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>124</v>
       </c>
@@ -15228,7 +15224,7 @@
         <v>18.939800000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>126</v>
       </c>
@@ -15236,7 +15232,7 @@
         <v>10.082100000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>128</v>
       </c>
@@ -15244,7 +15240,7 @@
         <v>3.8309000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>57</v>
       </c>
@@ -15252,7 +15248,7 @@
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>130</v>
       </c>
@@ -15260,7 +15256,7 @@
         <v>3.726</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>132</v>
       </c>
@@ -15268,7 +15264,7 @@
         <v>9.0700000000000003E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>134</v>
       </c>
@@ -15276,7 +15272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>136</v>
       </c>
@@ -15284,7 +15280,7 @@
         <v>7.7799999999999994E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>138</v>
       </c>
@@ -15292,7 +15288,7 @@
         <v>0.75260000000000005</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>140</v>
       </c>
@@ -15300,7 +15296,7 @@
         <v>0.18079999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>142</v>
       </c>
@@ -15308,7 +15304,7 @@
         <v>7.1199999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>144</v>
       </c>
@@ -15316,7 +15312,7 @@
         <v>0.40789999999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>146</v>
       </c>
@@ -15324,7 +15320,7 @@
         <v>0.45240000000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>148</v>
       </c>
@@ -15332,7 +15328,7 @@
         <v>0.5615</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>57</v>
       </c>
@@ -15340,7 +15336,7 @@
         <v>1.2583</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>150</v>
       </c>
@@ -15348,7 +15344,7 @@
         <v>0.39700000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>152</v>
       </c>
@@ -15356,7 +15352,7 @@
         <v>1.204</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>154</v>
       </c>
@@ -15364,7 +15360,7 @@
         <v>0.42820000000000003</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>156</v>
       </c>
@@ -15372,7 +15368,7 @@
         <v>0.40229999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -15380,7 +15376,7 @@
         <v>0.35439999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>160</v>
       </c>
@@ -15388,7 +15384,7 @@
         <v>1.0038</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>162</v>
       </c>
@@ -15396,7 +15392,7 @@
         <v>0.20280000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>164</v>
       </c>
@@ -15404,7 +15400,7 @@
         <v>0.3674</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -15412,7 +15408,7 @@
         <v>2.4899999999999999E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>57</v>
       </c>
@@ -15420,7 +15416,7 @@
         <v>1.1420999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -15428,7 +15424,7 @@
         <v>0.1527</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -15436,7 +15432,7 @@
         <v>0.26369999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -15444,7 +15440,7 @@
         <v>0.27529999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -15452,7 +15448,7 @@
         <v>3.7073999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -15460,7 +15456,7 @@
         <v>8.2992000000000008</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -15468,7 +15464,7 @@
         <v>7.9066000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>180</v>
       </c>
@@ -15476,7 +15472,7 @@
         <v>0.66359999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>182</v>
       </c>
@@ -15484,7 +15480,7 @@
         <v>9.2500999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -15492,7 +15488,7 @@
         <v>1.9994000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>57</v>
       </c>
@@ -15500,7 +15496,7 @@
         <v>1.1913</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -15508,7 +15504,7 @@
         <v>7.4015000000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>188</v>
       </c>
@@ -15523,24 +15519,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="312aad96-96f5-469b-aa89-ed1395b471aa">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="59bdd577-87e5-408b-82ee-b778416b7e33">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="312aad96-96f5-469b-aa89-ed1395b471aa" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045EEA7378D4F9D4D971E372262DEEEF3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f2706c894104d0f6c0f0e43ae247914a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="59bdd577-87e5-408b-82ee-b778416b7e33" xmlns:ns3="312aad96-96f5-469b-aa89-ed1395b471aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f8d303bca06c7c8e692b5b5fda65fe5" ns2:_="" ns3:_="">
     <xsd:import namespace="59bdd577-87e5-408b-82ee-b778416b7e33"/>
@@ -15795,6 +15773,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="312aad96-96f5-469b-aa89-ed1395b471aa">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="59bdd577-87e5-408b-82ee-b778416b7e33">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="312aad96-96f5-469b-aa89-ed1395b471aa" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15805,17 +15801,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2F657F-8CC2-4778-8C3C-CEE897C63E7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="312aad96-96f5-469b-aa89-ed1395b471aa"/>
-    <ds:schemaRef ds:uri="59bdd577-87e5-408b-82ee-b778416b7e33"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B124CC0-84A5-4028-9734-0D44EEF3F61D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15834,6 +15819,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A2F657F-8CC2-4778-8C3C-CEE897C63E7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="312aad96-96f5-469b-aa89-ed1395b471aa"/>
+    <ds:schemaRef ds:uri="59bdd577-87e5-408b-82ee-b778416b7e33"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1EF4DB-A2C5-4EC7-8561-6D41F8A0F27E}">
   <ds:schemaRefs>
@@ -15844,6 +15840,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" contentBits="0" removed="0"/>
 </clbl:labelList>
 </file>